--- a/website/static/Sample_Excel_Import.xlsx
+++ b/website/static/Sample_Excel_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/Projects/CycleTrack/website/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37594468-C814-304F-A8FA-FF3859AFF971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A286D-5FD7-8144-B07A-CF274AC6DED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="5020" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>Withdrawn</t>
   </si>
   <si>
-    <t>Wisconsin (Delete this row when you are making your sheet)</t>
+    <t>Sample School (DELETE THIS ROW)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -369,7 +369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>

--- a/website/static/Sample_Excel_Import.xlsx
+++ b/website/static/Sample_Excel_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/Projects/CycleTrack/website/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A286D-5FD7-8144-B07A-CF274AC6DED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCFAD61-4182-F745-94AE-43BB56452237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="5020" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>School Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Sample School (DELETE THIS ROW)</t>
+  </si>
+  <si>
+    <t>Pre-Interview Hold</t>
   </si>
 </sst>
 </file>
@@ -72,11 +75,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,14 +105,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,10 +331,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -337,7 +342,7 @@
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -351,25 +356,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -382,17 +390,18 @@
       <c r="D2" s="3">
         <v>44396</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>44410</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>44567</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3">
         <v>44571</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>44606</v>
       </c>
     </row>
